--- a/M9. mySQL/apunts.xlsx
+++ b/M9. mySQL/apunts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mroig\Google Drive\Web Projects\Front End Coding\Front End BcnActiva\Curs Vue\M9. mySQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5625536-BD51-4F01-AA76-75C12CF7653F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42ADB01-328A-40E0-A6FC-1CD29B6BD23A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1500" yWindow="24" windowWidth="18036" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="624" windowWidth="18036" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$210</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
